--- a/07-21-24 to 07-27-24 Milwaukee Schedule Copy.xlsx
+++ b/07-21-24 to 07-27-24 Milwaukee Schedule Copy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y77"/>
+  <dimension ref="A1:Y80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -917,7 +917,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>5:00 am meet for Carlie/Trevor at Grafton Park n Ride</t>
+          <t>5:00 am meet for Grafton Crew at Grafton Park n Ride</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -948,7 +948,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>5:15 am meet for Carlie/Trevor at Grafton Park n Ride</t>
+          <t>5:15 am meet for Grafton Crew at Grafton Park n Ride</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -960,7 +960,7 @@
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
         <is>
-          <t>5:15 am meet for Carlie/Trevor at Grafton Park n Ride</t>
+          <t>5:15 am meet for Grafton Crew at Grafton Park n Ride</t>
         </is>
       </c>
       <c r="S14" t="inlineStr"/>
@@ -1091,8 +1091,8 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>@ Store
-(w/ Trevor)</t>
+          <t>(Driver),
+Trainer (work w/ Cristi)</t>
         </is>
       </c>
       <c r="P16" t="inlineStr"/>
@@ -1155,8 +1155,8 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>@ Store
-(w/ Trevor)</t>
+          <t>(Driver),
+Trainer (work w/ Cristi)</t>
         </is>
       </c>
       <c r="L17" t="inlineStr"/>
@@ -1167,10 +1167,15 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr"/>
+          <t>Cristi</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>(w/ Carlie),
+2nd Day</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1184,8 +1189,8 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>@ Store
-(w/ Trevor)</t>
+          <t>(Driver),
+Trainer (work w/ Cristi)</t>
         </is>
       </c>
       <c r="T17" t="inlineStr"/>
@@ -1227,10 +1232,15 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
+          <t>Cristi</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>(w/ Carlie),
+1st Day</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
@@ -1239,7 +1249,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
@@ -1294,7 +1304,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1306,7 +1316,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
@@ -1318,10 +1328,15 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Curt</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr"/>
+          <t>Cristi</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>(w/ Carlie),
+3rd Day</t>
+        </is>
+      </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
@@ -1361,7 +1376,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -1373,15 +1388,10 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>@ Store
-(w/ Carlie)</t>
-        </is>
-      </c>
+          <t>Stephanie</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1390,7 +1400,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Curt</t>
         </is>
       </c>
       <c r="S20" t="inlineStr"/>
@@ -1437,7 +1447,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1449,12 +1459,12 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>(w/ Carlie)</t>
         </is>
       </c>
       <c r="P21" t="inlineStr"/>
@@ -1465,14 +1475,10 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>After Aurora</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
@@ -1512,7 +1518,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -1524,12 +1530,13 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Yvette</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>(w/ Carlie),
+2nd Day</t>
         </is>
       </c>
       <c r="P22" t="inlineStr"/>
@@ -1540,12 +1547,12 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>Rx</t>
+          <t>After Aurora</t>
         </is>
       </c>
       <c r="T22" t="inlineStr"/>
@@ -1587,15 +1594,10 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>@ Store
-(w/ Carlie)</t>
-        </is>
-      </c>
+          <t>Robyn</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
@@ -1604,7 +1606,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -1620,10 +1622,14 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
@@ -1663,13 +1669,12 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>(w/ Carlie)</t>
         </is>
       </c>
       <c r="L24" t="inlineStr"/>
@@ -1680,13 +1685,13 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
           <t>@ Store,
-Rx</t>
+Trainer (work w/ Keilah)</t>
         </is>
       </c>
       <c r="P24" t="inlineStr"/>
@@ -1697,7 +1702,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Joshua M</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
@@ -1740,12 +1745,13 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Yvette</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>(w/ Carlie),
+1st Day</t>
         </is>
       </c>
       <c r="L25" t="inlineStr"/>
@@ -1756,12 +1762,13 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer (work w/ Yvette)</t>
         </is>
       </c>
       <c r="P25" t="inlineStr"/>
@@ -1772,7 +1779,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Joshua M</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
@@ -1815,12 +1822,13 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="L26" t="inlineStr"/>
@@ -1831,12 +1839,13 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
@@ -1847,15 +1856,10 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>@ Store
-(w/ Carlie)</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
@@ -1899,7 +1903,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1915,7 +1919,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -1931,10 +1935,14 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Via</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr"/>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>(w/ Carlie)</t>
+        </is>
+      </c>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
@@ -1982,12 +1990,13 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer (work w/ Yvette)</t>
         </is>
       </c>
       <c r="L28" t="inlineStr"/>
@@ -1998,7 +2007,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2014,14 +2023,10 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Via</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
@@ -2069,7 +2074,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2085,7 +2090,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2101,13 +2106,13 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
           <t>@ Store,
-Supv Rx</t>
+Trainer (work w/ Keilah)</t>
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
@@ -2145,7 +2150,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2161,12 +2166,13 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Keilah</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+3rd Scan</t>
         </is>
       </c>
       <c r="P30" t="inlineStr"/>
@@ -2177,12 +2183,13 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
@@ -2220,7 +2227,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Justin</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2236,13 +2243,12 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P31" t="inlineStr"/>
@@ -2253,7 +2259,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -2300,7 +2306,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2316,7 +2322,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2332,7 +2338,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -2379,7 +2385,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2395,7 +2401,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2411,7 +2417,7 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
@@ -2446,31 +2452,31 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
+          <t>Makeda</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>20)</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
           <t>Nate</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="O34" t="inlineStr">
         <is>
           <t>@ Store,
 Supv Rx</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>20)</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>Wyatt</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr">
         <is>
@@ -2479,7 +2485,7 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
@@ -2514,7 +2520,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2523,13 +2529,38 @@
         </is>
       </c>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>21)</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>20)</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>Keilah</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>@ Store,
+4th Scan</t>
+        </is>
+      </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
@@ -2561,22 +2592,47 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Wyatt</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
+          <t>@ Store,
+Supv Rx</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>22)</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
           <t>@ Store</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>21)</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>Makeda</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
@@ -2601,24 +2657,40 @@
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>22)</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>23)</t>
+        </is>
+      </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t xml:space="preserve">5:30 AM START </t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr"/>
+          <t>Wyatt</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>5:00 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
@@ -2644,24 +2716,28 @@
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>23)</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Wyatt</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
@@ -2684,25 +2760,17 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>5:30 AM START</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>ROTE OIL #10 MUKWONAGO - ROCHESTER</t>
-        </is>
-      </c>
+      <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>5:00 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2740,17 +2808,13 @@
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>1060 N ROCHESTER ST</t>
+          <t xml:space="preserve">5:30 AM START </t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2758,7 +2822,7 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2798,7 +2862,7 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>ROTE OIL #6 HUBERTUS</t>
+          <t>5:30 AM START</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -2806,7 +2870,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/dmvR5bTHLs1Cbjcr5</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2814,7 +2878,7 @@
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>25406 75TH ST</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -2849,7 +2913,7 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>1306 HWY 175</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -2857,7 +2921,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>ROTE OIL #10 MUKWONAGO - ROCHESTER</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2865,7 +2929,7 @@
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
+          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -2900,7 +2964,7 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/SZRuQ4FHA1cX2ZmC8</t>
+          <t>ROTE OIL #6 HUBERTUS</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -2908,7 +2972,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>1060 N ROCHESTER ST</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -2916,7 +2980,7 @@
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>25406 75TH ST</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -2951,7 +3015,7 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>1306 HWY 175</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
@@ -2959,7 +3023,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>ROTE OIL #12 MUKWONAGO - (AMOCO) GREENWALD</t>
+          <t>https://goo.gl/maps/dmvR5bTHLs1Cbjcr5</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -2967,7 +3031,7 @@
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -3007,7 +3071,7 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>https://goo.gl/maps/SZRuQ4FHA1cX2ZmC8</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
@@ -3015,7 +3079,7 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>909 GREENWALD CT</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -3023,7 +3087,7 @@
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">
         <is>
-          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
@@ -3050,7 +3114,7 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>ROTE OIL #7 MILWAUKEE</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -3058,7 +3122,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ejQSLoz2D8EmzKVq6</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -3066,7 +3130,7 @@
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
         <is>
-          <t>25555 75TH ST</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
@@ -3089,7 +3153,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>5931 N 91ST ST</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
@@ -3097,7 +3161,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>ROTE OIL #12 MUKWONAGO - (AMOCO) GREENWALD</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -3105,7 +3169,7 @@
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
+          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -3148,7 +3212,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/cw58s7atAhTAGHNd7</t>
+          <t>ROTE OIL #7 MILWAUKEE</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -3156,13 +3220,17 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t>909 GREENWALD CT</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>25555 75TH ST</t>
+        </is>
+      </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
@@ -3204,7 +3272,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>5931 N 91ST ST</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
@@ -3212,26 +3280,18 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>ROTE OIL  #11 MUKWONAGO - (BP) ARROWHEAD</t>
+          <t>https://goo.gl/maps/ejQSLoz2D8EmzKVq6</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
@@ -3255,7 +3315,7 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>https://goo.gl/maps/cw58s7atAhTAGHNd7</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
@@ -3263,26 +3323,14 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>122 ARROWHEAD DR</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>Optima</t>
-        </is>
-      </c>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
@@ -3306,7 +3354,7 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>ROTE OIL #8 ELM GROVE</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -3314,14 +3362,26 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/7XkTFZtDFDgGBctz7</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr">
@@ -3349,18 +3409,34 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>13395 WATERTOWN PLANK RD</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>ROTE OIL  #11 MUKWONAGO - (BP) ARROWHEAD</t>
+        </is>
+      </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>Optima</t>
+        </is>
+      </c>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr">
@@ -3388,33 +3464,21 @@
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5zXAKpcRHDmA17UK9</t>
+          <t>ROTE OIL #8 ELM GROVE</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>122 ARROWHEAD DR</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
@@ -3443,29 +3507,21 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>13395 WATERTOWN PLANK RD</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>https://goo.gl/maps/7XkTFZtDFDgGBctz7</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
+      <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
@@ -3494,7 +3550,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>https://goo.gl/maps/5zXAKpcRHDmA17UK9</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -3506,7 +3562,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1760, OAK CREEK</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3537,19 +3593,31 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>ROTE OIL #09 GREENFIELD</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>200 E RYAN ROAD, SUITE 101</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -3580,15 +3648,19 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>12345 W LAYTON AVE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3596,7 +3668,7 @@
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5XiBYxoT2sF2</t>
+          <t>AURORA OUTPATIENT RX #1760, OAK CREEK</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -3623,21 +3695,21 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TSgMUriHbJPX9hGE7</t>
+          <t>ROTE OIL #09 GREENFIELD</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DC5-ITEM LEVEL </t>
-        </is>
-      </c>
+      <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>200 E RYAN ROAD, SUITE 101</t>
+        </is>
+      </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
@@ -3673,32 +3745,24 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>12345 W LAYTON AVE</t>
+        </is>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>AURORA OUTPATIENT RX #1135 OCONOMOWOC</t>
-        </is>
-      </c>
+      <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/5XiBYxoT2sF2</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
@@ -3731,26 +3795,18 @@
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/TSgMUriHbJPX9hGE7</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>1284 SUMMIT AVENUE SUITE 100</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -3778,29 +3834,33 @@
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/wL6wpeCnhYBhsPmP7</t>
+          <t xml:space="preserve">DC5-ITEM LEVEL </t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr"/>
@@ -3823,26 +3883,30 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>AURORA OUTPATIENT RX #1135 OCONOMOWOC</t>
+        </is>
+      </c>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
@@ -3864,32 +3928,28 @@
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>Sante Fe available, Equip</t>
-        </is>
-      </c>
+          <t>1284 SUMMIT AVENUE SUITE 100</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
+      <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
@@ -3907,24 +3967,32 @@
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>https://goo.gl/maps/wL6wpeCnhYBhsPmP7</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
@@ -3955,11 +4023,7 @@
       </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
@@ -3967,7 +4031,11 @@
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
@@ -3998,16 +4066,24 @@
       </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Sante Fe available, Equip</t>
+        </is>
+      </c>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr"/>
@@ -4031,15 +4107,19 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1194, MILWAUKEE</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>6:30 AM MEET COLLEGE (SOUTHWEST)</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
@@ -4066,17 +4146,13 @@
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t>3355 W FOREST HOME AVE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
@@ -4101,17 +4177,13 @@
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/nyTEMnH2h4tpY6i79</t>
+          <t>AURORA OUTPATIENT RX #1194, MILWAUKEE</t>
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DC5-ITEM LEVEL  </t>
-        </is>
-      </c>
+      <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
@@ -4134,13 +4206,17 @@
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>3355 W FOREST HOME AVE</t>
+        </is>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #493, RACINE</t>
+          <t>6:30 AM MEET COLLEGE (SOUTHWEST)</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
@@ -4164,26 +4240,18 @@
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>Gold Camry available, Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/nyTEMnH2h4tpY6i79</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
-          <t>3441 SPRING ST</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O71" t="inlineStr"/>
@@ -4214,7 +4282,7 @@
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/8i7XHemjTpL2</t>
+          <t xml:space="preserve">DC5-ITEM LEVEL  </t>
         </is>
       </c>
       <c r="O72" t="inlineStr"/>
@@ -4238,12 +4306,28 @@
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Gold Camry available, Equip</t>
+        </is>
+      </c>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>OPEN PANTRY #493, RACINE</t>
+        </is>
+      </c>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
@@ -4266,28 +4350,16 @@
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>3441 SPRING ST</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr"/>
@@ -4309,29 +4381,16 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Casey</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/8i7XHemjTpL2</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr"/>
@@ -4353,19 +4412,15 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
@@ -4388,20 +4443,28 @@
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="O77" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr"/>
@@ -4413,6 +4476,116 @@
       <c r="X77" t="inlineStr"/>
       <c r="Y77" t="inlineStr"/>
     </row>
+    <row r="78">
+      <c r="A78" t="inlineStr"/>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>Casey</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr"/>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr"/>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/07-21-24 to 07-27-24 Milwaukee Schedule Copy.xlsx
+++ b/07-21-24 to 07-27-24 Milwaukee Schedule Copy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y81"/>
+  <dimension ref="A1:Y80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1879,7 +1879,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Via</t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
@@ -1960,10 +1960,14 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Via</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
     </row>
@@ -2043,7 +2047,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
@@ -2127,7 +2131,7 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
@@ -2203,7 +2207,7 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
@@ -2280,7 +2284,7 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
@@ -2359,7 +2363,7 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
@@ -2438,7 +2442,7 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
@@ -2517,7 +2521,7 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
@@ -2597,7 +2601,7 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
@@ -2677,7 +2681,7 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
@@ -2757,7 +2761,7 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
@@ -2817,21 +2821,9 @@
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>24)</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
     </row>
@@ -2893,11 +2885,19 @@
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>5:00 AM OFFICE LEAVE TIME</t>
+        </is>
+      </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>5:00 AM MEET OFFICE</t>
+        </is>
+      </c>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
@@ -2933,17 +2933,25 @@
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5:30 AM START </t>
+        </is>
+      </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
         <is>
-          <t>5:00 AM MEET OFFICE</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2978,7 +2986,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t xml:space="preserve">5:30 AM START </t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2986,7 +2994,7 @@
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>5:00 AM OFFICE LEAVE TIME</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -2994,7 +3002,7 @@
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -3029,7 +3037,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>ROTE OIL #10 MUKWONAGO - ROCHESTER</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -3037,7 +3045,7 @@
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -3045,7 +3053,7 @@
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>ROTE OIL #14 TREVOR (CITGO)</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -3080,7 +3088,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>ROTE OIL #10 MUKWONAGO - ROCHESTER</t>
+          <t>1060 N ROCHESTER ST</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -3088,7 +3096,7 @@
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>25406 75TH ST</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -3096,7 +3104,7 @@
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr">
         <is>
-          <t>ROTE OIL #14 TREVOR (CITGO)</t>
+          <t>12617 ANTIOCH RD</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -3136,7 +3144,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>1060 N ROCHESTER ST</t>
+          <t>https://goo.gl/maps/dmvR5bTHLs1Cbjcr5</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -3144,7 +3152,7 @@
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
-          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
+          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -3152,7 +3160,7 @@
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr">
         <is>
-          <t>12617 ANTIOCH RD</t>
+          <t>https://goo.gl/maps/xA9YMzPGc6Vhxi5r8</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
@@ -3179,7 +3187,7 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/dmvR5bTHLs1Cbjcr5</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -3187,7 +3195,7 @@
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">
         <is>
-          <t>25406 75TH ST</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
@@ -3195,7 +3203,7 @@
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/xA9YMzPGc6Vhxi5r8</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
@@ -3222,7 +3230,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -3230,7 +3238,7 @@
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
@@ -3238,7 +3246,7 @@
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
@@ -3273,7 +3281,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>ROTE OIL #12 MUKWONAGO - (AMOCO) GREENWALD</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -3281,7 +3289,7 @@
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -3289,7 +3297,7 @@
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>ROTE OIL #13 TREVOR (BP)</t>
         </is>
       </c>
       <c r="W47" t="inlineStr"/>
@@ -3324,7 +3332,7 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>ROTE OIL #12 MUKWONAGO - (AMOCO) GREENWALD</t>
+          <t>909 GREENWALD CT</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -3332,7 +3340,7 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>25555 75TH ST</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
@@ -3340,7 +3348,7 @@
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr">
         <is>
-          <t>ROTE OIL #13 TREVOR (BP)</t>
+          <t>12511 ANTIOCH RD</t>
         </is>
       </c>
       <c r="W48" t="inlineStr"/>
@@ -3371,7 +3379,7 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>909 GREENWALD CT</t>
+          <t>https://goo.gl/maps/ejQSLoz2D8EmzKVq6</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -3379,7 +3387,7 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
+          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -3387,7 +3395,7 @@
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr">
         <is>
-          <t>12511 ANTIOCH RD</t>
+          <t>https://goo.gl/maps/iu3xzNwgJ32esP5RA</t>
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
@@ -3418,25 +3426,17 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ejQSLoz2D8EmzKVq6</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>25555 75TH ST</t>
-        </is>
-      </c>
+      <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/iu3xzNwgJ32esP5RA</t>
-        </is>
-      </c>
+      <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
@@ -3465,22 +3465,42 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
     </row>
@@ -3508,28 +3528,41 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t>ROTE OIL  #11 MUKWONAGO - (BP) ARROWHEAD</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>Optima</t>
+        </is>
+      </c>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>Equip</t>
+          <t>Driver,
+Optima</t>
         </is>
       </c>
       <c r="X52" t="inlineStr"/>
@@ -3559,43 +3592,18 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>ROTE OIL  #11 MUKWONAGO - (BP) ARROWHEAD</t>
+          <t>122 ARROWHEAD DR</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="W53" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
     </row>
@@ -3623,26 +3631,14 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>122 ARROWHEAD DR</t>
+          <t>https://goo.gl/maps/7XkTFZtDFDgGBctz7</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>Optima</t>
-        </is>
-      </c>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
@@ -3672,19 +3668,23 @@
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/7XkTFZtDFDgGBctz7</t>
-        </is>
-      </c>
+      <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr"/>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>5:30 AM MEET BAYSHORE</t>
+        </is>
+      </c>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
@@ -3710,16 +3710,36 @@
       </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
@@ -3747,24 +3767,20 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>AURORA OUTPATIENT RX #1760, OAK CREEK</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -3772,7 +3788,7 @@
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr">
         <is>
-          <t>5:30 AM MEET BAYSHORE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W57" t="inlineStr"/>
@@ -3800,22 +3816,14 @@
       </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>200 E RYAN ROAD, SUITE 101</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -3823,7 +3831,7 @@
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>AURORA OUTPATIENT RX #1155 DEPERE</t>
         </is>
       </c>
       <c r="W58" t="inlineStr"/>
@@ -3858,7 +3866,7 @@
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1760, OAK CREEK</t>
+          <t>https://goo.gl/maps/5XiBYxoT2sF2</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
@@ -3866,7 +3874,7 @@
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>1881 CHICAGO ST</t>
         </is>
       </c>
       <c r="W59" t="inlineStr"/>
@@ -3891,21 +3899,21 @@
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>200 E RYAN ROAD, SUITE 101</t>
-        </is>
-      </c>
+      <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1155 DEPERE</t>
+          <t>https://goo.gl/maps/9vepkQciLjQDFTRi8</t>
         </is>
       </c>
       <c r="W60" t="inlineStr"/>
@@ -3944,25 +3952,29 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t xml:space="preserve">DC5-ITEM LEVEL </t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5XiBYxoT2sF2</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t>1881 CHICAGO ST</t>
-        </is>
-      </c>
+      <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
@@ -3995,7 +4007,7 @@
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-ITEM LEVEL </t>
+          <t>AURORA OUTPATIENT RX #1135 OCONOMOWOC</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -4004,13 +4016,22 @@
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/9vepkQciLjQDFTRi8</t>
-        </is>
-      </c>
-      <c r="W62" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima, Equip</t>
+        </is>
+      </c>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
     </row>
@@ -4038,30 +4059,30 @@
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1135 OCONOMOWOC</t>
+          <t>1284 SUMMIT AVENUE SUITE 100</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>Casey</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>3rd Aurora</t>
+        </is>
+      </c>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
     </row>
@@ -4093,31 +4114,22 @@
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>1284 SUMMIT AVENUE SUITE 100</t>
+          <t>https://goo.gl/maps/wL6wpeCnhYBhsPmP7</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V64" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W64" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima, Equip</t>
-        </is>
-      </c>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
     </row>
@@ -4147,32 +4159,20 @@
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/wL6wpeCnhYBhsPmP7</t>
-        </is>
-      </c>
+      <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V65" t="inlineStr">
-        <is>
-          <t>Casey</t>
-        </is>
-      </c>
-      <c r="W65" t="inlineStr">
-        <is>
-          <t>3rd Aurora</t>
-        </is>
-      </c>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
     </row>
@@ -4193,16 +4193,24 @@
       </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Sante Fe available, Equip</t>
+        </is>
+      </c>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
@@ -4230,26 +4238,18 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>Sante Fe available, Equip</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
+      <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
@@ -4275,16 +4275,8 @@
       </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
@@ -4346,7 +4338,11 @@
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>6:30 AM MEET COLLEGE (SOUTHWEST)</t>
+        </is>
+      </c>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
@@ -4375,7 +4371,7 @@
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
-          <t>6:30 AM MEET COLLEGE (SOUTHWEST)</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O71" t="inlineStr"/>
@@ -4418,7 +4414,7 @@
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t xml:space="preserve">DC5-ITEM LEVEL  </t>
         </is>
       </c>
       <c r="O72" t="inlineStr"/>
@@ -4449,7 +4445,7 @@
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-ITEM LEVEL  </t>
+          <t>OPEN PANTRY #493, RACINE</t>
         </is>
       </c>
       <c r="O73" t="inlineStr"/>
@@ -4480,7 +4476,7 @@
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #493, RACINE</t>
+          <t>3441 SPRING ST</t>
         </is>
       </c>
       <c r="O74" t="inlineStr"/>
@@ -4515,7 +4511,7 @@
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
-          <t>3441 SPRING ST</t>
+          <t>https://goo.gl/maps/8i7XHemjTpL2</t>
         </is>
       </c>
       <c r="O75" t="inlineStr"/>
@@ -4548,11 +4544,7 @@
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/8i7XHemjTpL2</t>
-        </is>
-      </c>
+      <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
@@ -4578,9 +4570,21 @@
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr"/>
@@ -4607,17 +4611,18 @@
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Casey</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Equip</t>
+          <t>Driver,
+Red Van</t>
         </is>
       </c>
       <c r="P78" t="inlineStr"/>
@@ -4646,20 +4651,15 @@
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>Casey</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr"/>
@@ -4686,12 +4686,12 @@
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O80" t="inlineStr"/>
@@ -4706,41 +4706,6 @@
       <c r="X80" t="inlineStr"/>
       <c r="Y80" t="inlineStr"/>
     </row>
-    <row r="81">
-      <c r="A81" t="inlineStr"/>
-      <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="inlineStr"/>
-      <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr"/>
-      <c r="V81" t="inlineStr"/>
-      <c r="W81" t="inlineStr"/>
-      <c r="X81" t="inlineStr"/>
-      <c r="Y81" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/07-21-24 to 07-27-24 Milwaukee Schedule Copy.xlsx
+++ b/07-21-24 to 07-27-24 Milwaukee Schedule Copy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y80"/>
+  <dimension ref="A1:Y81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
@@ -2754,21 +2754,9 @@
         </is>
       </c>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>23)</t>
-        </is>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
     </row>
@@ -2849,7 +2837,11 @@
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>5:00 AM MEET OFFICE</t>
+        </is>
+      </c>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
@@ -2895,7 +2887,7 @@
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
         <is>
-          <t>5:00 AM MEET OFFICE</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -2907,22 +2899,9 @@
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>@ Store
-(w/ Trevor)</t>
-        </is>
-      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
@@ -2951,7 +2930,7 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2965,15 +2944,20 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>@ Store
+(w/ Trevor)</t>
+        </is>
+      </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
@@ -2984,25 +2968,17 @@
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>ROTE OIL #14 TREVOR (CITGO)</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -3016,12 +2992,12 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -3037,7 +3013,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>ROTE OIL #10 MUKWONAGO - ROCHESTER</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -3045,7 +3021,7 @@
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
-          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -3053,7 +3029,7 @@
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
-          <t>ROTE OIL #14 TREVOR (CITGO)</t>
+          <t>12617 ANTIOCH RD</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -3067,12 +3043,12 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -3088,7 +3064,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>1060 N ROCHESTER ST</t>
+          <t>ROTE OIL #10 MUKWONAGO - ROCHESTER</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -3096,7 +3072,7 @@
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
-          <t>25406 75TH ST</t>
+          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -3104,7 +3080,7 @@
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr">
         <is>
-          <t>12617 ANTIOCH RD</t>
+          <t>https://goo.gl/maps/xA9YMzPGc6Vhxi5r8</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -3118,20 +3094,15 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>@ Store
-(w/ Carlie)</t>
-        </is>
-      </c>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
@@ -3144,7 +3115,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/dmvR5bTHLs1Cbjcr5</t>
+          <t>1060 N ROCHESTER ST</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -3152,7 +3123,7 @@
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
+          <t>25406 75TH ST</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -3160,7 +3131,7 @@
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/xA9YMzPGc6Vhxi5r8</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
@@ -3172,9 +3143,22 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>@ Store
+(w/ Carlie)</t>
+        </is>
+      </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
@@ -3187,7 +3171,7 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>https://goo.gl/maps/dmvR5bTHLs1Cbjcr5</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -3195,7 +3179,7 @@
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
@@ -3203,7 +3187,7 @@
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
@@ -3230,7 +3214,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -3238,7 +3222,7 @@
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
@@ -3246,7 +3230,7 @@
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>ROTE OIL #13 TREVOR (BP)</t>
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
@@ -3258,16 +3242,8 @@
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>5:00 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
@@ -3281,7 +3257,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>ROTE OIL #12 MUKWONAGO - (AMOCO) GREENWALD</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -3289,7 +3265,7 @@
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -3297,7 +3273,7 @@
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr">
         <is>
-          <t>ROTE OIL #13 TREVOR (BP)</t>
+          <t>12511 ANTIOCH RD</t>
         </is>
       </c>
       <c r="W47" t="inlineStr"/>
@@ -3316,7 +3292,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START </t>
+          <t>5:00 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -3332,7 +3308,7 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>909 GREENWALD CT</t>
+          <t>ROTE OIL #12 MUKWONAGO - (AMOCO) GREENWALD</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -3340,7 +3316,7 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>25555 75TH ST</t>
+          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
@@ -3348,7 +3324,7 @@
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr">
         <is>
-          <t>12511 ANTIOCH RD</t>
+          <t>https://goo.gl/maps/iu3xzNwgJ32esP5RA</t>
         </is>
       </c>
       <c r="W48" t="inlineStr"/>
@@ -3360,10 +3336,14 @@
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t xml:space="preserve">6:00 AM START </t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -3379,7 +3359,7 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ejQSLoz2D8EmzKVq6</t>
+          <t>909 GREENWALD CT</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -3387,17 +3367,13 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
+          <t>25555 75TH ST</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/iu3xzNwgJ32esP5RA</t>
-        </is>
-      </c>
+      <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
@@ -3410,7 +3386,7 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>ROTE OIL #03 TWIN LAKES</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -3426,18 +3402,34 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>https://goo.gl/maps/ejQSLoz2D8EmzKVq6</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
+        </is>
+      </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr"/>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
     </row>
@@ -3449,7 +3441,7 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>475 N LAKE AVE</t>
+          <t>ROTE OIL #03 TWIN LAKES</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -3465,40 +3457,29 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>Equip</t>
+          <t>Driver,
+Optima</t>
         </is>
       </c>
       <c r="X51" t="inlineStr"/>
@@ -3512,7 +3493,7 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://goo.gl/maps/jNgJR8hii6jJGZQP7 </t>
+          <t>475 N LAKE AVE</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -3528,43 +3509,38 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>ROTE OIL  #11 MUKWONAGO - (BP) ARROWHEAD</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>Optima</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="W52" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
     </row>
@@ -3576,7 +3552,7 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t xml:space="preserve">https://goo.gl/maps/jNgJR8hii6jJGZQP7 </t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -3592,14 +3568,26 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>122 ARROWHEAD DR</t>
+          <t>ROTE OIL  #11 MUKWONAGO - (BP) ARROWHEAD</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Optima</t>
+        </is>
+      </c>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
@@ -3615,7 +3603,7 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -3631,7 +3619,7 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/7XkTFZtDFDgGBctz7</t>
+          <t>122 ARROWHEAD DR</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3641,7 +3629,11 @@
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>5:30 AM MEET BAYSHORE</t>
+        </is>
+      </c>
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
@@ -3654,7 +3646,7 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>ROTE OIL #04 GENOA CITY</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -3668,21 +3660,21 @@
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/7XkTFZtDFDgGBctz7</t>
+        </is>
+      </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr">
         <is>
-          <t>5:30 AM MEET BAYSHORE</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="W55" t="inlineStr"/>
@@ -3697,7 +3689,7 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t xml:space="preserve">100 ELIZABETH LANE    </t>
+          <t>ROTE OIL #04 GENOA CITY</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -3710,26 +3702,14 @@
       </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -3737,7 +3717,7 @@
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W56" t="inlineStr"/>
@@ -3752,7 +3732,7 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/DitGJzEvTVhJPxkJ8</t>
+          <t xml:space="preserve">100 ELIZABETH LANE    </t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -3767,20 +3747,24 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1760, OAK CREEK</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -3788,7 +3772,7 @@
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>AURORA OUTPATIENT RX #1155 DEPERE</t>
         </is>
       </c>
       <c r="W57" t="inlineStr"/>
@@ -3803,7 +3787,7 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>https://goo.gl/maps/DitGJzEvTVhJPxkJ8</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -3816,14 +3800,22 @@
       </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>200 E RYAN ROAD, SUITE 101</t>
+          <t>AURORA OUTPATIENT RX #1760, OAK CREEK</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -3831,7 +3823,7 @@
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1155 DEPERE</t>
+          <t>1881 CHICAGO ST</t>
         </is>
       </c>
       <c r="W58" t="inlineStr"/>
@@ -3846,7 +3838,7 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -3866,7 +3858,7 @@
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5XiBYxoT2sF2</t>
+          <t>200 E RYAN ROAD, SUITE 101</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
@@ -3874,7 +3866,7 @@
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr">
         <is>
-          <t>1881 CHICAGO ST</t>
+          <t>https://goo.gl/maps/9vepkQciLjQDFTRi8</t>
         </is>
       </c>
       <c r="W59" t="inlineStr"/>
@@ -3889,7 +3881,7 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>ROTE OIL #05  LAKE GENEVA</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -3899,23 +3891,19 @@
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/5XiBYxoT2sF2</t>
+        </is>
+      </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/9vepkQciLjQDFTRi8</t>
-        </is>
-      </c>
+      <c r="V60" t="inlineStr"/>
       <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
@@ -3928,7 +3916,7 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>300 PELLER RD</t>
+          <t>ROTE OIL #05  LAKE GENEVA</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -3952,30 +3940,31 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-ITEM LEVEL </t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr">
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr">
         <is>
           <t>1)</t>
         </is>
       </c>
-      <c r="R61" t="inlineStr">
+      <c r="V61" t="inlineStr">
         <is>
           <t>DJ</t>
         </is>
       </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
-      <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima, Equip</t>
+        </is>
+      </c>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
     </row>
@@ -3987,7 +3976,7 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/6fegzT1PbyY5VkDR6</t>
+          <t>300 PELLER RD</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
@@ -4007,29 +3996,40 @@
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1135 OCONOMOWOC</t>
+          <t xml:space="preserve">DC5-ITEM LEVEL </t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Casey</t>
         </is>
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>Driver,
-Altima, Equip</t>
+          <t>3rd Aurora</t>
         </is>
       </c>
       <c r="X62" t="inlineStr"/>
@@ -4041,7 +4041,11 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/6fegzT1PbyY5VkDR6</t>
+        </is>
+      </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
@@ -4059,7 +4063,7 @@
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>1284 SUMMIT AVENUE SUITE 100</t>
+          <t>AURORA OUTPATIENT RX #1135 OCONOMOWOC</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -4070,19 +4074,15 @@
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>Casey</t>
-        </is>
-      </c>
-      <c r="W63" t="inlineStr">
-        <is>
-          <t>3rd Aurora</t>
-        </is>
-      </c>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
     </row>
@@ -4091,21 +4091,9 @@
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -4114,17 +4102,13 @@
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/wL6wpeCnhYBhsPmP7</t>
+          <t>1284 SUMMIT AVENUE SUITE 100</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
@@ -4140,17 +4124,17 @@
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Gold Camry</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
@@ -4159,13 +4143,17 @@
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/wL6wpeCnhYBhsPmP7</t>
+        </is>
+      </c>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="S65" t="inlineStr"/>
@@ -4181,9 +4169,21 @@
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Gold Camry</t>
+        </is>
+      </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
@@ -4193,24 +4193,16 @@
       </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>Sante Fe available, Equip</t>
-        </is>
-      </c>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
@@ -4238,15 +4230,19 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Sante Fe available, Equip</t>
+        </is>
+      </c>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr"/>
@@ -4275,8 +4271,16 @@
       </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
@@ -4338,11 +4342,7 @@
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>6:30 AM MEET COLLEGE (SOUTHWEST)</t>
-        </is>
-      </c>
+      <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
@@ -4371,7 +4371,7 @@
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>6:30 AM MEET COLLEGE (SOUTHWEST)</t>
         </is>
       </c>
       <c r="O71" t="inlineStr"/>
@@ -4414,7 +4414,7 @@
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-ITEM LEVEL  </t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O72" t="inlineStr"/>
@@ -4445,7 +4445,7 @@
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #493, RACINE</t>
+          <t xml:space="preserve">DC5-ITEM LEVEL  </t>
         </is>
       </c>
       <c r="O73" t="inlineStr"/>
@@ -4476,7 +4476,7 @@
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
-          <t>3441 SPRING ST</t>
+          <t>OPEN PANTRY #493, RACINE</t>
         </is>
       </c>
       <c r="O74" t="inlineStr"/>
@@ -4511,7 +4511,7 @@
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/8i7XHemjTpL2</t>
+          <t>3441 SPRING ST</t>
         </is>
       </c>
       <c r="O75" t="inlineStr"/>
@@ -4544,7 +4544,11 @@
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/8i7XHemjTpL2</t>
+        </is>
+      </c>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
@@ -4570,21 +4574,9 @@
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr"/>
@@ -4611,18 +4603,17 @@
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>Casey</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Driver,
-Red Van</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="P78" t="inlineStr"/>
@@ -4651,15 +4642,20 @@
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr"/>
+          <t>Casey</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr"/>
@@ -4686,12 +4682,12 @@
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="O80" t="inlineStr"/>
@@ -4706,6 +4702,41 @@
       <c r="X80" t="inlineStr"/>
       <c r="Y80" t="inlineStr"/>
     </row>
+    <row r="81">
+      <c r="A81" t="inlineStr"/>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/07-21-24 to 07-27-24 Milwaukee Schedule Copy.xlsx
+++ b/07-21-24 to 07-27-24 Milwaukee Schedule Copy.xlsx
@@ -2837,11 +2837,7 @@
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>5:00 AM MEET OFFICE</t>
-        </is>
-      </c>
+      <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
@@ -2877,17 +2873,13 @@
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>5:00 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:00 AM MEET OFFICE</t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -2899,9 +2891,22 @@
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>@ Store
+(w/ Trevor)</t>
+        </is>
+      </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
@@ -2912,17 +2917,13 @@
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5:30 AM START </t>
-        </is>
-      </c>
+      <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:00 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2930,7 +2931,7 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2944,20 +2945,15 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>@ Store
-(w/ Trevor)</t>
-        </is>
-      </c>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
@@ -2968,17 +2964,25 @@
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5:30 AM START </t>
+        </is>
+      </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr">
         <is>
-          <t>ROTE OIL #14 TREVOR (CITGO)</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -2992,12 +2996,12 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -3029,7 +3033,7 @@
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
-          <t>12617 ANTIOCH RD</t>
+          <t>ROTE OIL #14 TREVOR (CITGO)</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -3043,12 +3047,12 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -3080,7 +3084,7 @@
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/xA9YMzPGc6Vhxi5r8</t>
+          <t>12617 ANTIOCH RD</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -3094,15 +3098,20 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr"/>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>@ Store
+(w/ Carlie)</t>
+        </is>
+      </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
@@ -3131,7 +3140,7 @@
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://goo.gl/maps/xA9YMzPGc6Vhxi5r8</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
@@ -3143,22 +3152,9 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>@ Store
-(w/ Carlie)</t>
-        </is>
-      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
@@ -3187,7 +3183,7 @@
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
@@ -3230,7 +3226,7 @@
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr">
         <is>
-          <t>ROTE OIL #13 TREVOR (BP)</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
@@ -3273,7 +3269,7 @@
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr">
         <is>
-          <t>12511 ANTIOCH RD</t>
+          <t>ROTE OIL #13 TREVOR (BP)</t>
         </is>
       </c>
       <c r="W47" t="inlineStr"/>
@@ -3324,7 +3320,7 @@
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/iu3xzNwgJ32esP5RA</t>
+          <t>12511 ANTIOCH RD</t>
         </is>
       </c>
       <c r="W48" t="inlineStr"/>
@@ -3373,7 +3369,11 @@
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/iu3xzNwgJ32esP5RA</t>
+        </is>
+      </c>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
@@ -3415,21 +3415,9 @@
       </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
     </row>
@@ -3468,18 +3456,17 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="X51" t="inlineStr"/>
@@ -3532,15 +3519,20 @@
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="W52" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
     </row>
@@ -3629,11 +3621,7 @@
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr">
-        <is>
-          <t>5:30 AM MEET BAYSHORE</t>
-        </is>
-      </c>
+      <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
@@ -3674,7 +3662,7 @@
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>5:30 AM MEET BAYSHORE</t>
         </is>
       </c>
       <c r="W55" t="inlineStr"/>
@@ -3717,7 +3705,7 @@
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="W56" t="inlineStr"/>
@@ -3772,7 +3760,7 @@
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1155 DEPERE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W57" t="inlineStr"/>
@@ -3823,7 +3811,7 @@
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr">
         <is>
-          <t>1881 CHICAGO ST</t>
+          <t>AURORA OUTPATIENT RX #1155 DEPERE</t>
         </is>
       </c>
       <c r="W58" t="inlineStr"/>
@@ -3866,7 +3854,7 @@
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/9vepkQciLjQDFTRi8</t>
+          <t>1881 CHICAGO ST</t>
         </is>
       </c>
       <c r="W59" t="inlineStr"/>
@@ -3903,7 +3891,11 @@
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/9vepkQciLjQDFTRi8</t>
+        </is>
+      </c>
       <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
@@ -3949,22 +3941,9 @@
       <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W61" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima, Equip</t>
-        </is>
-      </c>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
     </row>
@@ -4019,17 +3998,18 @@
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>Casey</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>3rd Aurora</t>
+          <t>Driver,
+Altima, Equip</t>
         </is>
       </c>
       <c r="X62" t="inlineStr"/>
@@ -4074,15 +4054,19 @@
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="W63" t="inlineStr"/>
+          <t>Casey</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>3rd Aurora</t>
+        </is>
+      </c>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
     </row>
